--- a/biology/Zoologie/Barbu_de_Hume/Barbu_de_Hume.xlsx
+++ b/biology/Zoologie/Barbu_de_Hume/Barbu_de_Hume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilopogon incognitus
 Le Barbu de Hume (Psilopogon incognitus, anciennement Megalaima incognita) est une espèce d'oiseaux de la famille des Megalaimidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de cet oiseau commémore l'ornithologue britannique Allan Octavian Hume (1829-1912).
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de la Birmanie, à la Thaïlande, au Cambodge, au Laos, et au Viêt Nam.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Barbu de Hume niche dans des trous d'arbres. Il mange des baies, des figues et des insectes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Barbu de Hume niche dans des trous d'arbres. Il mange des baies, des figues et des insectes.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Psilopogon incognitus incognitus (Hume, 1874) ;
